--- a/dataset/Link.xlsx
+++ b/dataset/Link.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\DataStorage\UIT\Semesters\Semester6\DS200\CourseProject\SourceCode\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eddc52f40eea311/Documents/GitHub/DS200/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406919C4-98E4-463D-94E0-D35867C62847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{160180DD-BC88-4618-A4FD-8BE8F832FC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AF1CBA4-85A6-41F6-A832-45A8D26E5D82}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
   <si>
     <t>Thông tin về KOLs</t>
   </si>
@@ -92,18 +92,6 @@
   </si>
   <si>
     <t>Làm đẹp</t>
-  </si>
-  <si>
-    <t>Chou Lười</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@chouchinchan</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/@chouchinchan</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=61567875710309</t>
   </si>
   <si>
     <t>Ẩm thực</t>
@@ -578,65 +566,53 @@
     <t>Vòng đeo tay thông minh Xiaomi Mi Band 9 được trang bị viên pin 233 mAh, cung cấp thời lượng sử dụng có thể lên đến 21 ngày thoải mái để yên tâm sử dụng. Màn hình AMOLED 1.62 inch độ phân giải 192 x 490 pixels mang lại trải nghiệm hiển thị sắc nét. Khả năng chống nước 5ATM, hơn 150 chế độ luyện tập, các tính năng theo dõi sức khỏe như chu kỳ kinh nguyệt, SpO2 và mức độ stress.</t>
   </si>
   <si>
-    <t>FOXIE</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@9tailsfoxie</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/@Foxiebeauty</t>
-  </si>
-  <si>
-    <t>Milo On Diet</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@miloondiet</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/@MiloOnDiet</t>
-  </si>
-  <si>
-    <t>Hannah Olala</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@hannaholala</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/@HannahOlala1</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/DaoBaLoc04</t>
-  </si>
-  <si>
-    <t>Luna Đào</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@im.lunadao_official</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/@LunaDaoOfficial</t>
-  </si>
-  <si>
-    <t>Ninh Tito</t>
+    <t>Jenny Huỳnh</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jenny.huynh._</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@jennyhuynh</t>
+  </si>
+  <si>
+    <t>Ngô Đức Duy</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>https://www.tiktok.com/@ninhtito</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/c/NinhTit%C3%B4</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ninheating</t>
+    <t>https://www.tiktok.com/@duyyy.real.channel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@duyyy.real.channel</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/duythamchannel</t>
+  </si>
+  <si>
+    <t>Hải Đăng</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@haidangrevieww</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@haidangreview</t>
+  </si>
+  <si>
+    <t>Trường True</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@truongtrue_</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@truongtrue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -710,6 +686,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF1155CC"/>
+      <name val="Nunito"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -749,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -863,12 +845,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -945,14 +938,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,8 +950,42 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1191,10 +1211,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H986"/>
+  <dimension ref="A1:H985"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1210,16 +1230,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1247,147 +1267,119 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>3</v>
-      </c>
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>39</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="24">
+        <v>20</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.5">
+      <c r="A4" s="24">
+        <v>42</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="38">
+        <v>30</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42" x14ac:dyDescent="0.5">
+      <c r="A5" s="38">
+        <v>17</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>8</v>
-      </c>
-      <c r="B4" s="22" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="37">
+        <v>18</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>16</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>9</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="24">
-        <v>41</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>10</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="30">
-        <v>32</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="42" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="G6" s="30"/>
+      <c r="H6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -1395,8 +1387,8 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1404,19 +1396,19 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1424,9 +1416,9 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1434,16 +1426,16 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1452,11 +1444,11 @@
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1465,34 +1457,34 @@
       <c r="C16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
@@ -1514,8 +1506,8 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="3"/>
       <c r="H21" s="7"/>
     </row>
@@ -1536,7 +1528,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1546,7 +1538,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1554,9 +1546,9 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1584,27 +1576,27 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="7"/>
@@ -1626,8 +1618,8 @@
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1641,22 +1633,22 @@
     </row>
     <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1664,27 +1656,24 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
@@ -8315,36 +8304,21 @@
       <c r="D985" s="10"/>
       <c r="E985" s="10"/>
     </row>
-    <row r="986" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A986" s="10"/>
-      <c r="B986" s="10"/>
-      <c r="C986" s="10"/>
-      <c r="D986" s="10"/>
-      <c r="E986" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{92E95732-F20C-40F5-AC77-9AA251DA86D8}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{3EBDDC20-2E56-4D86-8DB4-FE696B9000C9}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{BC8591C1-5DF4-4546-85EA-A36CD2BC8356}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{CFF7D3D0-41C2-48DA-8001-73867CFB9741}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{B5D8EE4C-6C2D-46DB-90C2-5D73B3B5F321}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{DA2D7148-4568-494F-A399-08AC6D182689}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{C9D6C7F9-D832-407D-A75E-E1807FCBB241}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{CD608B49-0A87-44C1-87E6-D5E4C3F48B2A}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{FF5C1262-08A3-477C-A0A2-6AE33F3818EA}"/>
-    <hyperlink ref="G6" r:id="rId10" xr:uid="{1627D884-EC79-4E8E-AEED-260B75B879C0}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{9B4A9D6A-09A1-40EE-88A4-03F05C46DD34}"/>
-    <hyperlink ref="F7" r:id="rId12" xr:uid="{8D780028-09A6-4CD9-BF53-40FF3078F496}"/>
-    <hyperlink ref="E8" r:id="rId13" xr:uid="{B6BC0A21-352D-4DF8-A339-2FF033FF70D6}"/>
-    <hyperlink ref="F8" r:id="rId14" xr:uid="{2BBF0B53-042D-4529-990B-B095C058A0D4}"/>
-    <hyperlink ref="G8" r:id="rId15" xr:uid="{D574FD54-ACD4-4CA3-AE11-D0772E3D442A}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{82404EB0-155B-433D-8955-429095E2C132}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{281E26AC-C303-459A-BE6B-909DF749F85F}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{AF577E68-7B2B-49D1-AF82-42C4AA1CFF19}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{02E1939F-B1AC-42B6-BBF7-975AE59FDBF9}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{A5EE33F1-6C5F-4A86-BEDB-0505199ED33F}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{A68972AD-EFBB-418A-8758-35180004DEEA}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{4617C593-5C4E-485C-BA0C-FC4AFDF77DC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -8371,33 +8345,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="A1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="168" x14ac:dyDescent="0.25">
@@ -8405,13 +8379,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4">
         <v>308000</v>
@@ -8425,13 +8399,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4">
         <v>134000</v>
@@ -8445,13 +8419,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4">
         <v>324000</v>
@@ -8465,13 +8439,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4">
         <v>159000</v>
@@ -8485,13 +8459,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4">
         <v>186000</v>
@@ -8505,13 +8479,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4">
         <v>250000</v>
@@ -8525,13 +8499,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4">
         <v>266000</v>
@@ -8545,13 +8519,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4">
         <v>849000</v>
@@ -8565,13 +8539,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4">
         <v>84000</v>
@@ -8585,13 +8559,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" s="4">
         <v>78000</v>
@@ -8605,19 +8579,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="4">
         <v>169000</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="210" x14ac:dyDescent="0.5">
@@ -8625,19 +8599,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4">
         <v>35000</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="126" x14ac:dyDescent="0.25">
@@ -8645,19 +8619,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4">
         <v>108000</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="273" x14ac:dyDescent="0.25">
@@ -8665,19 +8639,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4">
         <v>90000</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -8685,19 +8659,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4">
         <v>85000</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="84" x14ac:dyDescent="0.5">
@@ -8705,19 +8679,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="4">
         <v>17000</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="126" x14ac:dyDescent="0.25">
@@ -8725,19 +8699,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4">
         <v>105000</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="231" x14ac:dyDescent="0.25">
@@ -8745,19 +8719,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4">
         <v>145000</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="168" x14ac:dyDescent="0.25">
@@ -8765,19 +8739,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E21" s="4">
         <v>31000</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="168" x14ac:dyDescent="0.25">
@@ -8785,19 +8759,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E22" s="4">
         <v>144000</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="189" x14ac:dyDescent="0.25">
@@ -8805,19 +8779,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E23" s="4">
         <v>2290000</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -8825,19 +8799,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E24" s="4">
         <v>650000</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="168" x14ac:dyDescent="0.25">
@@ -8845,19 +8819,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E25" s="4">
         <v>1200000</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="252" x14ac:dyDescent="0.25">
@@ -8865,19 +8839,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E26" s="4">
         <v>690000</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="231" x14ac:dyDescent="0.25">
@@ -8885,19 +8859,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E27" s="4">
         <v>340000</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="147" x14ac:dyDescent="0.25">
@@ -8905,19 +8879,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E28" s="4">
         <v>2990000</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="147" x14ac:dyDescent="0.25">
@@ -8925,19 +8899,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E29" s="4">
         <v>13850000</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="336" x14ac:dyDescent="0.25">
@@ -8945,19 +8919,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E30" s="4">
         <v>1452000</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -8965,19 +8939,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E31" s="4">
         <v>9750000</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -8985,19 +8959,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E32" s="4">
         <v>13590000</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -9005,19 +8979,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E33" s="4">
         <v>30000</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="168" x14ac:dyDescent="0.25">
@@ -9025,19 +8999,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E34" s="4">
         <v>38000</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -9045,19 +9019,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E35" s="4">
         <v>50000</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -9065,19 +9039,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E36" s="4">
         <v>249000</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="147" x14ac:dyDescent="0.25">
@@ -9085,19 +9059,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E37" s="4">
         <v>249000</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="399" x14ac:dyDescent="0.25">
@@ -9105,19 +9079,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E38" s="4">
         <v>291000</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="126" x14ac:dyDescent="0.25">
@@ -9125,19 +9099,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E39" s="4">
         <v>37000</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="147" x14ac:dyDescent="0.25">
@@ -9145,19 +9119,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E40" s="4">
         <v>7000</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -9165,19 +9139,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E41" s="4">
         <v>45000</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="210" x14ac:dyDescent="0.25">
@@ -9185,19 +9159,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E42" s="4">
         <v>34990000</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="147" x14ac:dyDescent="0.25">
@@ -9205,19 +9179,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E43" s="4">
         <v>29990000</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="147" x14ac:dyDescent="0.25">
@@ -9225,19 +9199,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E44" s="4">
         <v>4990000</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="189" x14ac:dyDescent="0.25">
@@ -9245,19 +9219,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E45" s="4">
         <v>6690000</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="168" x14ac:dyDescent="0.25">
@@ -9265,19 +9239,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E46" s="4">
         <v>390000</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="231" x14ac:dyDescent="0.25">
@@ -9285,19 +9259,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E47" s="4">
         <v>2210000</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="231" x14ac:dyDescent="0.25">
@@ -9305,19 +9279,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E48" s="4">
         <v>1199000</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="252" x14ac:dyDescent="0.25">
@@ -9325,19 +9299,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E49" s="4">
         <v>470000</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="147" x14ac:dyDescent="0.25">
@@ -9345,19 +9319,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E50" s="4">
         <v>12100000</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="147" x14ac:dyDescent="0.25">
@@ -9365,19 +9339,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E51" s="4">
         <v>2400000</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="168" x14ac:dyDescent="0.25">
@@ -9385,19 +9359,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E52" s="4">
         <v>890000</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.25">
